--- a/biology/Zoologie/Drymarchon_corais/Drymarchon_corais.xlsx
+++ b/biology/Zoologie/Drymarchon_corais/Drymarchon_corais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drymarchon corais est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drymarchon corais est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le nord de l'Argentine, dans les provinces du Chaco et de Formosa ;
 au Belize ;
 en Bolivie ;
@@ -559,7 +573,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Drymarchon corais peut mesurer jusqu'à 280 cm. Son dos est noir-violacé et présente des reflets iridescents en pleine lumière.
 Il s'agit d'un serpent diurne non venimeux réputé être résistant au venin d'autres serpents ; toutefois sa morsure peut provoquer des hémorragies.
@@ -592,9 +608,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 mai 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 mai 2014) :
 Drymarchon corais corais (Boie, 1827)
 Drymarchon corais orizabensis (Dugès, 1905)
 Drymarchon corais rubidus Smith, 1941 - Mexique
@@ -626,7 +644,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boie, 1827 : Bemerkungen über Merrem's Versuch eines Systems der Amphibien, 1. Lieferung: Ophidier. Isis von Oken, Jena, vol. 20, p. 508-566 (texte intégral).
 Dugès, 1905 : Description d’un ophidien nouveau du Mexique (Morenoa orizabensis, g. et sp. nn.). Proceedings of the Zoological Society of London, vol. 1905, no 2, p. 517-518 (texte intégral).
